--- a/design/Excel/excel/公式表_formula.xlsx
+++ b/design/Excel/excel/公式表_formula.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="cfg_formula" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -448,7 +448,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/design/Excel/excel/公式表_formula.xlsx
+++ b/design/Excel/excel/公式表_formula.xlsx
@@ -19,86 +19,108 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>key</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>公式内容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>formula</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>参数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>parameter</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础技能伤害公式1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础技能伤害公式2</t>
+  </si>
+  <si>
+    <t>基础技能伤害公式3</t>
+  </si>
+  <si>
+    <t>attack2</t>
+  </si>
+  <si>
+    <t>attack3</t>
+  </si>
+  <si>
+    <t>a+b*c</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>a*b*(c+10)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>a#技能等级|b#value1|c#value2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>attack1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>note</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础技能伤害公式1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础技能伤害公式2</t>
-  </si>
-  <si>
-    <t>基础技能伤害公式3</t>
-  </si>
-  <si>
-    <t>attack2</t>
-  </si>
-  <si>
-    <t>attack3</t>
-  </si>
-  <si>
-    <t>a+b*c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10+a+b+c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a*b*(c+10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a#技能等级|b#value1|c#value2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>b+c</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +128,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -144,9 +173,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -448,7 +480,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -463,7 +495,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -497,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -514,16 +546,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -531,16 +563,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -548,16 +580,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -611,7 +643,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -625,7 +657,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -639,7 +671,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
